--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H2">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I2">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J2">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N2">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q2">
-        <v>16.41741076050966</v>
+        <v>26.50318723935056</v>
       </c>
       <c r="R2">
-        <v>147.756696844587</v>
+        <v>238.528685154155</v>
       </c>
       <c r="S2">
-        <v>0.1167908187946144</v>
+        <v>0.1211129664092787</v>
       </c>
       <c r="T2">
-        <v>0.1167908187946144</v>
+        <v>0.1211129664092787</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H3">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I3">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J3">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
         <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q3">
-        <v>17.58983824702333</v>
+        <v>26.80377037207223</v>
       </c>
       <c r="R3">
-        <v>158.30854422321</v>
+        <v>241.23393334865</v>
       </c>
       <c r="S3">
-        <v>0.1251312793047827</v>
+        <v>0.122486556480833</v>
       </c>
       <c r="T3">
-        <v>0.1251312793047827</v>
+        <v>0.122486556480833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H4">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I4">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J4">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N4">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q4">
-        <v>7.984147646603334</v>
+        <v>22.06276102484056</v>
       </c>
       <c r="R4">
-        <v>71.85732881942999</v>
+        <v>198.564849223565</v>
       </c>
       <c r="S4">
-        <v>0.05679794180863566</v>
+        <v>0.1008213242719005</v>
       </c>
       <c r="T4">
-        <v>0.05679794180863566</v>
+        <v>0.1008213242719005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H5">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I5">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J5">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N5">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q5">
-        <v>6.796428691110667</v>
+        <v>9.205996406866113</v>
       </c>
       <c r="R5">
-        <v>61.167858219996</v>
+        <v>82.85396766179501</v>
       </c>
       <c r="S5">
-        <v>0.04834870024835649</v>
+        <v>0.04206911129289662</v>
       </c>
       <c r="T5">
-        <v>0.04834870024835649</v>
+        <v>0.04206911129289662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H6">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I6">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J6">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N6">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q6">
-        <v>13.39028574560211</v>
+        <v>14.18565006764656</v>
       </c>
       <c r="R6">
-        <v>120.512571710419</v>
+        <v>127.670850608819</v>
       </c>
       <c r="S6">
-        <v>0.09525633846504157</v>
+        <v>0.06482488859248461</v>
       </c>
       <c r="T6">
-        <v>0.09525633846504157</v>
+        <v>0.06482488859248461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H7">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I7">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J7">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N7">
         <v>140.44867</v>
       </c>
       <c r="O7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q7">
-        <v>14.34653513775223</v>
+        <v>14.34653513775222</v>
       </c>
       <c r="R7">
         <v>129.11881623977</v>
       </c>
       <c r="S7">
-        <v>0.1020589427922538</v>
+        <v>0.06556009330260081</v>
       </c>
       <c r="T7">
-        <v>0.1020589427922538</v>
+        <v>0.06556009330260081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H8">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I8">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J8">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N8">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q8">
-        <v>6.511990226878891</v>
+        <v>11.80894224524855</v>
       </c>
       <c r="R8">
-        <v>58.60791204191001</v>
+        <v>106.280480207237</v>
       </c>
       <c r="S8">
-        <v>0.04632525077639599</v>
+        <v>0.05396392564266345</v>
       </c>
       <c r="T8">
-        <v>0.04632525077639599</v>
+        <v>0.05396392564266346</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H9">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I9">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J9">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N9">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q9">
-        <v>5.543268883939113</v>
+        <v>4.927446739610111</v>
       </c>
       <c r="R9">
-        <v>49.88941995545201</v>
+        <v>44.347020656491</v>
       </c>
       <c r="S9">
-        <v>0.03943392299784666</v>
+        <v>0.02251720466932538</v>
       </c>
       <c r="T9">
-        <v>0.03943392299784666</v>
+        <v>0.02251720466932539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H10">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I10">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J10">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N10">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O10">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P10">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q10">
-        <v>7.959836238028332</v>
+        <v>25.23562572330577</v>
       </c>
       <c r="R10">
-        <v>71.63852614225499</v>
+        <v>227.120631509752</v>
       </c>
       <c r="S10">
-        <v>0.05662499435943407</v>
+        <v>0.1153205259028595</v>
       </c>
       <c r="T10">
-        <v>0.05662499435943407</v>
+        <v>0.1153205259028596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H11">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I11">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J11">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N11">
         <v>140.44867</v>
       </c>
       <c r="O11">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P11">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q11">
-        <v>8.528277323516667</v>
+        <v>25.52183293935111</v>
       </c>
       <c r="R11">
-        <v>76.75449591165001</v>
+        <v>229.69649645416</v>
       </c>
       <c r="S11">
-        <v>0.06066879278655102</v>
+        <v>0.1166284216147958</v>
       </c>
       <c r="T11">
-        <v>0.06066879278655102</v>
+        <v>0.1166284216147958</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H12">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I12">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J12">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N12">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O12">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P12">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q12">
-        <v>3.871043290216667</v>
+        <v>21.00757069772177</v>
       </c>
       <c r="R12">
-        <v>34.83938961195</v>
+        <v>189.068136279496</v>
       </c>
       <c r="S12">
-        <v>0.02753797916424718</v>
+        <v>0.09599936721859989</v>
       </c>
       <c r="T12">
-        <v>0.02753797916424718</v>
+        <v>0.0959993672185999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H13">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I13">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J13">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N13">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O13">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P13">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q13">
-        <v>3.295188271393334</v>
+        <v>8.765703446747555</v>
       </c>
       <c r="R13">
-        <v>29.65669444254</v>
+        <v>78.89133102072799</v>
       </c>
       <c r="S13">
-        <v>0.02344143920819401</v>
+        <v>0.04005708209778508</v>
       </c>
       <c r="T13">
-        <v>0.02344143920819401</v>
+        <v>0.04005708209778509</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H14">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I14">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J14">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N14">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O14">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P14">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q14">
-        <v>9.535519536258223</v>
+        <v>2.649601210081889</v>
       </c>
       <c r="R14">
-        <v>85.819675826324</v>
+        <v>23.846410890737</v>
       </c>
       <c r="S14">
-        <v>0.067834151835345</v>
+        <v>0.01210801778127933</v>
       </c>
       <c r="T14">
-        <v>0.067834151835345</v>
+        <v>0.01210801778127933</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H15">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I15">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J15">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N15">
         <v>140.44867</v>
       </c>
       <c r="O15">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P15">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q15">
-        <v>10.21648594232445</v>
+        <v>2.679651385745556</v>
       </c>
       <c r="R15">
-        <v>91.94837348092003</v>
+        <v>24.11686247171</v>
       </c>
       <c r="S15">
-        <v>0.07267843728913913</v>
+        <v>0.01224533960159017</v>
       </c>
       <c r="T15">
-        <v>0.07267843728913911</v>
+        <v>0.01224533960159017</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H16">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I16">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J16">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N16">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O16">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P16">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q16">
-        <v>4.637332705817778</v>
+        <v>2.205678803127888</v>
       </c>
       <c r="R16">
-        <v>41.73599435236</v>
+        <v>19.851109228151</v>
       </c>
       <c r="S16">
-        <v>0.03298923878046952</v>
+        <v>0.01007940291785948</v>
       </c>
       <c r="T16">
-        <v>0.03298923878046951</v>
+        <v>0.01007940291785948</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H17">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I17">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J17">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N17">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O17">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P17">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q17">
-        <v>3.947484746910223</v>
+        <v>0.9203504091547777</v>
       </c>
       <c r="R17">
-        <v>35.527362722192</v>
+        <v>8.283153682392999</v>
       </c>
       <c r="S17">
-        <v>0.02808177138869271</v>
+        <v>0.004205772203247654</v>
       </c>
       <c r="T17">
-        <v>0.0280817713886927</v>
+        <v>0.004205772203247655</v>
       </c>
     </row>
   </sheetData>
